--- a/Documents/TestAnalysation.xlsx
+++ b/Documents/TestAnalysation.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="771" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="825" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CloseOpen" sheetId="1" r:id="rId1"/>
     <sheet name="BidSellDelete" sheetId="2" r:id="rId2"/>
     <sheet name="Auction" sheetId="3" r:id="rId3"/>
-    <sheet name="Exactly One Success" sheetId="4" r:id="rId4"/>
-    <sheet name="Has Next" sheetId="5" r:id="rId5"/>
+    <sheet name="ExactlyOneSuccess" sheetId="4" r:id="rId4"/>
+    <sheet name="HasNext" sheetId="5" r:id="rId5"/>
     <sheet name="Interface" sheetId="6" r:id="rId6"/>
     <sheet name="Lottery" sheetId="7" r:id="rId7"/>
-    <sheet name="State Machine" sheetId="8" r:id="rId8"/>
-    <sheet name="Unsafe Map Iterator" sheetId="9" r:id="rId9"/>
+    <sheet name="StateMachine" sheetId="8" r:id="rId8"/>
+    <sheet name="UnsafeMapIterator" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="5">
   <si>
     <t>No. Of Events</t>
   </si>
@@ -297,11 +297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1070524688"/>
-        <c:axId val="-1070529040"/>
+        <c:axId val="-420571440"/>
+        <c:axId val="-420573616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1070524688"/>
+        <c:axId val="-420571440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,12 +419,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1070529040"/>
+        <c:crossAx val="-420573616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1070529040"/>
+        <c:axId val="-420573616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1070524688"/>
+        <c:crossAx val="-420571440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1004,11 +1004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1070539376"/>
-        <c:axId val="-1070528496"/>
+        <c:axId val="-420564912"/>
+        <c:axId val="-420566000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1070539376"/>
+        <c:axId val="-420564912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,12 +1126,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1070528496"/>
+        <c:crossAx val="-420566000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1070528496"/>
+        <c:axId val="-420566000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1070539376"/>
+        <c:crossAx val="-420564912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1453,11 +1453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1067737344"/>
-        <c:axId val="-1067727552"/>
+        <c:axId val="-420577968"/>
+        <c:axId val="-420577424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1067737344"/>
+        <c:axId val="-420577968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,12 +1575,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1067727552"/>
+        <c:crossAx val="-420577424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1067727552"/>
+        <c:axId val="-420577424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1701,2665 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1067737344"/>
+        <c:crossAx val="-420577968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExactlyOneSuccess!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time,ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExactlyOneSuccess!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExactlyOneSuccess!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49414</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>265377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-375710960"/>
+        <c:axId val="-375710416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-375710960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Events</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-375710416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-375710416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-375710960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HasNext!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time,ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HasNext!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HasNext!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1809</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41673</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>347403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-630906192"/>
+        <c:axId val="-630905104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-630906192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Events</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-630905104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-630905104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-630906192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interface!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time,ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Interface!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Interface!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>960431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-369649296"/>
+        <c:axId val="-369652560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-369649296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Events</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-369652560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-369652560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-369649296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lottery!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time,ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Lottery!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Lottery!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132837</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>294681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>710273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-369657456"/>
+        <c:axId val="-369654736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-369657456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Events</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-369654736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-369654736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-369657456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>StateMachine!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time,ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>StateMachine!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>StateMachine!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7713</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-369651472"/>
+        <c:axId val="-369647120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-369651472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Events</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-369647120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-369647120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-369651472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UnsafeMapIterator!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time,ms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UnsafeMapIterator!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UnsafeMapIterator!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-369656912"/>
+        <c:axId val="-369650384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-369656912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Events</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-369650384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-369650384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-369656912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1870,6 +4528,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2903,6 +5801,3102 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3502,6 +9496,228 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>305360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>543485</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543485</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543485</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>543485</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48185</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>543485</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>10085</xdr:rowOff>
     </xdr:to>
@@ -4802,7 +11018,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5090,6 +11306,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5097,8 +11314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5389,61 +11606,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,23 +11633,22 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <f>AVERAGE(C2:F2)</f>
-        <v>20</v>
+        <v>133</v>
+      </c>
+      <c r="C2">
+        <v>214</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+      <c r="E2">
+        <v>96</v>
+      </c>
+      <c r="F2">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5485,23 +11656,22 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G13" si="0">AVERAGE(C3:F3)</f>
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="C3">
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <v>112</v>
+      </c>
+      <c r="E3">
+        <v>241</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5509,23 +11679,22 @@
         <v>400</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="C4">
+        <v>264</v>
+      </c>
+      <c r="D4">
+        <v>233</v>
+      </c>
+      <c r="E4">
+        <v>240</v>
+      </c>
+      <c r="F4">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5533,23 +11702,22 @@
         <v>800</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>477</v>
+      </c>
+      <c r="C5">
+        <v>487</v>
+      </c>
+      <c r="D5">
+        <v>480</v>
+      </c>
+      <c r="E5">
+        <v>472</v>
+      </c>
+      <c r="F5">
+        <v>472</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5557,23 +11725,22 @@
         <v>1600</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
+        <v>1434</v>
+      </c>
+      <c r="C6">
+        <v>1304</v>
+      </c>
+      <c r="D6">
+        <v>1487</v>
+      </c>
+      <c r="E6">
+        <v>1411</v>
+      </c>
+      <c r="F6">
+        <v>1534</v>
+      </c>
+      <c r="G6" t="s">
         <v>4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>3.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5581,23 +11748,22 @@
         <v>3200</v>
       </c>
       <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>11.25</v>
+        <v>2350</v>
+      </c>
+      <c r="C7">
+        <v>2649</v>
+      </c>
+      <c r="D7">
+        <v>2389</v>
+      </c>
+      <c r="E7">
+        <v>2110</v>
+      </c>
+      <c r="F7">
+        <v>2253</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5605,23 +11771,22 @@
         <v>6400</v>
       </c>
       <c r="B8">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2">
-        <v>24</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>31.25</v>
+        <v>4220</v>
+      </c>
+      <c r="C8">
+        <v>4067</v>
+      </c>
+      <c r="D8">
+        <v>4073</v>
+      </c>
+      <c r="E8">
+        <v>4169</v>
+      </c>
+      <c r="F8">
+        <v>4574</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5629,23 +11794,22 @@
         <v>12800</v>
       </c>
       <c r="B9">
-        <v>131</v>
-      </c>
-      <c r="C9" s="2">
-        <v>158</v>
-      </c>
-      <c r="D9" s="2">
-        <v>111</v>
-      </c>
-      <c r="E9" s="2">
-        <v>121</v>
-      </c>
-      <c r="F9" s="2">
-        <v>136</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>131.5</v>
+        <v>8593</v>
+      </c>
+      <c r="C9">
+        <v>7844</v>
+      </c>
+      <c r="D9">
+        <v>8212</v>
+      </c>
+      <c r="E9">
+        <v>8818</v>
+      </c>
+      <c r="F9">
+        <v>9499</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5653,23 +11817,22 @@
         <v>25600</v>
       </c>
       <c r="B10">
-        <v>423</v>
-      </c>
-      <c r="C10" s="2">
-        <v>427</v>
-      </c>
-      <c r="D10" s="2">
-        <v>415</v>
-      </c>
-      <c r="E10" s="2">
-        <v>420</v>
-      </c>
-      <c r="F10" s="2">
-        <v>433</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>423.75</v>
+        <v>22026</v>
+      </c>
+      <c r="C10">
+        <v>19009</v>
+      </c>
+      <c r="D10">
+        <v>23748</v>
+      </c>
+      <c r="E10">
+        <v>22246</v>
+      </c>
+      <c r="F10">
+        <v>23102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5677,23 +11840,22 @@
         <v>51200</v>
       </c>
       <c r="B11">
-        <v>1605</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1607</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1596</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1651</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1566</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>1605</v>
+        <v>56580</v>
+      </c>
+      <c r="C11">
+        <v>57601</v>
+      </c>
+      <c r="D11">
+        <v>55461</v>
+      </c>
+      <c r="E11">
+        <v>56620</v>
+      </c>
+      <c r="F11">
+        <v>56641</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5701,23 +11863,22 @@
         <v>102400</v>
       </c>
       <c r="B12">
-        <v>7713</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7826</v>
-      </c>
-      <c r="D12" s="2">
-        <v>7046</v>
-      </c>
-      <c r="E12" s="2">
-        <v>8193</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7789</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>7713.5</v>
+        <v>131359</v>
+      </c>
+      <c r="C12">
+        <v>135008</v>
+      </c>
+      <c r="D12">
+        <v>126240</v>
+      </c>
+      <c r="E12">
+        <v>133464</v>
+      </c>
+      <c r="F12">
+        <v>130725</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5725,6 +11886,573 @@
         <v>204800</v>
       </c>
       <c r="B13">
+        <v>960431</v>
+      </c>
+      <c r="C13">
+        <v>438927</v>
+      </c>
+      <c r="D13">
+        <v>424847</v>
+      </c>
+      <c r="E13">
+        <v>2537285</v>
+      </c>
+      <c r="F13">
+        <v>440666</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>164</v>
+      </c>
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <v>164</v>
+      </c>
+      <c r="E2">
+        <v>128</v>
+      </c>
+      <c r="F2">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <v>142</v>
+      </c>
+      <c r="D3">
+        <v>153</v>
+      </c>
+      <c r="E3">
+        <v>162</v>
+      </c>
+      <c r="F3">
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>400</v>
+      </c>
+      <c r="B4">
+        <v>303</v>
+      </c>
+      <c r="C4">
+        <v>317</v>
+      </c>
+      <c r="D4">
+        <v>301</v>
+      </c>
+      <c r="E4">
+        <v>296</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>800</v>
+      </c>
+      <c r="B5">
+        <v>831</v>
+      </c>
+      <c r="C5">
+        <v>845</v>
+      </c>
+      <c r="D5">
+        <v>817</v>
+      </c>
+      <c r="E5">
+        <v>831</v>
+      </c>
+      <c r="F5">
+        <v>833</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1600</v>
+      </c>
+      <c r="B6">
+        <v>2635</v>
+      </c>
+      <c r="C6">
+        <v>2804</v>
+      </c>
+      <c r="D6">
+        <v>2757</v>
+      </c>
+      <c r="E6">
+        <v>2586</v>
+      </c>
+      <c r="F6">
+        <v>2395</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3200</v>
+      </c>
+      <c r="B7">
+        <v>4531</v>
+      </c>
+      <c r="C7">
+        <v>4511</v>
+      </c>
+      <c r="D7">
+        <v>4515</v>
+      </c>
+      <c r="E7">
+        <v>4532</v>
+      </c>
+      <c r="F7">
+        <v>4566</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6400</v>
+      </c>
+      <c r="B8">
+        <v>11541</v>
+      </c>
+      <c r="C8">
+        <v>11574</v>
+      </c>
+      <c r="D8">
+        <v>11590</v>
+      </c>
+      <c r="E8">
+        <v>11407</v>
+      </c>
+      <c r="F8">
+        <v>11596</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12800</v>
+      </c>
+      <c r="B9">
+        <v>28366</v>
+      </c>
+      <c r="C9">
+        <v>25478</v>
+      </c>
+      <c r="D9">
+        <v>26240</v>
+      </c>
+      <c r="E9">
+        <v>29492</v>
+      </c>
+      <c r="F9">
+        <v>32256</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25600</v>
+      </c>
+      <c r="B10">
+        <v>56560</v>
+      </c>
+      <c r="C10">
+        <v>55719</v>
+      </c>
+      <c r="D10">
+        <v>56702</v>
+      </c>
+      <c r="E10">
+        <v>56773</v>
+      </c>
+      <c r="F10">
+        <v>57047</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>51200</v>
+      </c>
+      <c r="B11">
+        <v>132837</v>
+      </c>
+      <c r="C11">
+        <v>132065</v>
+      </c>
+      <c r="D11">
+        <v>132309</v>
+      </c>
+      <c r="E11">
+        <v>133608</v>
+      </c>
+      <c r="F11">
+        <v>133367</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>102400</v>
+      </c>
+      <c r="B12">
+        <v>294681</v>
+      </c>
+      <c r="C12">
+        <v>306270</v>
+      </c>
+      <c r="D12">
+        <v>293238</v>
+      </c>
+      <c r="E12">
+        <v>287748</v>
+      </c>
+      <c r="F12">
+        <v>291468</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>204800</v>
+      </c>
+      <c r="B13">
+        <v>710273</v>
+      </c>
+      <c r="C13">
+        <v>734815</v>
+      </c>
+      <c r="D13">
+        <v>725680</v>
+      </c>
+      <c r="E13">
+        <v>698452</v>
+      </c>
+      <c r="F13">
+        <v>682148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>400</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>800</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1600</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3200</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6400</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12800</v>
+      </c>
+      <c r="B9">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2">
+        <v>158</v>
+      </c>
+      <c r="D9" s="2">
+        <v>111</v>
+      </c>
+      <c r="E9" s="2">
+        <v>121</v>
+      </c>
+      <c r="F9" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25600</v>
+      </c>
+      <c r="B10">
+        <v>423</v>
+      </c>
+      <c r="C10" s="2">
+        <v>427</v>
+      </c>
+      <c r="D10" s="2">
+        <v>415</v>
+      </c>
+      <c r="E10" s="2">
+        <v>420</v>
+      </c>
+      <c r="F10" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>51200</v>
+      </c>
+      <c r="B11">
+        <v>1605</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1607</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1596</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1651</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>102400</v>
+      </c>
+      <c r="B12">
+        <v>7713</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7826</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7046</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8193</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>204800</v>
+      </c>
+      <c r="B13">
         <v>30923</v>
       </c>
       <c r="C13" s="2">
@@ -5738,15 +12466,12 @@
       </c>
       <c r="F13" s="2">
         <v>30213</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>30923.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5755,7 +12480,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5770,5 +12495,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/TestAnalysation.xlsx
+++ b/Documents/TestAnalysation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="825" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="825" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CloseOpen" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>No. Of Events</t>
   </si>
@@ -43,10 +43,37 @@
     <t xml:space="preserve">With diferent Items </t>
   </si>
   <si>
-    <t>Wit only one Item</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Open Close Random</t>
+  </si>
+  <si>
+    <t>Open Close Worst</t>
+  </si>
+  <si>
+    <t>Lottery Random</t>
+  </si>
+  <si>
+    <t>Lottery Worst</t>
+  </si>
+  <si>
+    <t>With only one Item</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Auction</t>
+  </si>
+  <si>
+    <t>ExactlyOneSuccess</t>
+  </si>
+  <si>
+    <t>HasNext</t>
+  </si>
+  <si>
+    <t>StateMachine</t>
   </si>
 </sst>
 </file>
@@ -89,12 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -132,8 +160,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -144,13 +172,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time,ms</c:v>
+                  <c:v>Open Close Random</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -173,7 +201,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>CloseOpen!$A$2:$A$17</c:f>
               <c:numCache>
@@ -229,8 +257,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>CloseOpen!$B$2:$B$17</c:f>
               <c:numCache>
@@ -286,7 +314,131 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CloseOpen!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Open Close Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CloseOpen!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CloseOpen!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3390</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>333880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>939267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -297,30 +449,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-420571440"/>
-        <c:axId val="-420573616"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-420571440"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1149710304"/>
+        <c:axId val="1149715744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1149710304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -342,17 +482,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number Of Events</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of Events</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -391,8 +525,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -419,12 +553,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-420573616"/>
+        <c:crossAx val="1149715744"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-420573616"/>
+        <c:axId val="1149715744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,20 +602,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Time,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>ms</a:t>
+                  <a:t>Time, ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -514,14 +642,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -545,9 +667,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-420571440"/>
+        <c:crossAx val="1149710304"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -557,6 +679,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -610,19 +763,9 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13086255937019212"/>
-          <c:y val="3.0488303905318211E-2"/>
-          <c:w val="0.83149355710570927"/>
-          <c:h val="0.84644064874396696"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -633,13 +776,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time,ms</c:v>
+                  <c:v>With diferent Items </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -662,236 +805,148 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>BidSellDelete!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BidSellDelete!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>220.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>647.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2361.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5100.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10096.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24381.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52711</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>116425.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BidSellDelete!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With only one Item</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:xVal>
+          </c:marker>
+          <c:cat>
             <c:numRef>
-              <c:f>BidSellDelete!$A$2:$A$19</c:f>
+              <c:f>BidSellDelete!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -905,95 +960,56 @@
                   <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1600</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>6400</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>12800</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>25600</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>51200</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="12">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>BidSellDelete!$B$2:$B$19</c:f>
+              <c:f>BidSellDelete!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>220.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>172.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>647.5</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1592</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2361.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5100.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10096.5</c:v>
+                  <c:v>149.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24381.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>52711</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>116425.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>149.75</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>1647</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="12">
                   <c:v>49006.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1004,30 +1020,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-420564912"/>
-        <c:axId val="-420566000"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-420564912"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1149719552"/>
+        <c:axId val="1149720640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1149719552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1053,13 +1057,12 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of Events</a:t>
+                  <a:t> Of Events</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1098,8 +1101,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1126,12 +1129,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-420566000"/>
+        <c:crossAx val="1149720640"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-420566000"/>
+        <c:axId val="1149720640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,20 +1178,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Time,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>ms</a:t>
+                  <a:t>Time,ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1221,14 +1218,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1252,9 +1243,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-420564912"/>
+        <c:crossAx val="1149719552"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1264,8 +1255,39 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1318,8 +1340,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1330,13 +1352,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time,ms</c:v>
+                  <c:v>Auction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1359,12 +1381,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Auction!$A$2:$A$17</c:f>
+              <c:f>Auction!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1400,13 +1422,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Auction!$B$2:$B$17</c:f>
+              <c:f>Auction!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>74.5</c:v>
                 </c:pt>
@@ -1442,7 +1464,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1453,30 +1475,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-420577968"/>
-        <c:axId val="-420577424"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-420577968"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="970903056"/>
+        <c:axId val="970905232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="970903056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1498,17 +1508,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of Events</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of Events</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1547,8 +1551,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1575,12 +1579,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-420577424"/>
+        <c:crossAx val="970905232"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-420577424"/>
+        <c:axId val="970905232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,20 +1628,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Time,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>ms</a:t>
+                  <a:t>Time, ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1670,14 +1668,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1701,9 +1693,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-420577968"/>
+        <c:crossAx val="970903056"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1767,8 +1759,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1779,13 +1771,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time,ms</c:v>
+                  <c:v>ExactlyOneSuccess</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1808,12 +1800,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>ExactlyOneSuccess!$A$2:$A$17</c:f>
+              <c:f>ExactlyOneSuccess!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>102</c:v>
                 </c:pt>
@@ -1852,13 +1844,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>ExactlyOneSuccess!$B$2:$B$17</c:f>
+              <c:f>ExactlyOneSuccess!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>143</c:v>
                 </c:pt>
@@ -1897,7 +1889,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1908,30 +1900,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-375710960"/>
-        <c:axId val="-375710416"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-375710960"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1159297072"/>
+        <c:axId val="1159292720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1159297072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1953,7 +1933,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Nuber</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
@@ -1963,7 +1943,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2002,8 +1981,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2030,12 +2009,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-375710416"/>
+        <c:crossAx val="1159292720"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-375710416"/>
+        <c:axId val="1159292720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,16 +2062,12 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> </a:t>
+                  <a:t> ms</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>ms</a:t>
-                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2125,14 +2103,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2156,9 +2128,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-375710960"/>
+        <c:crossAx val="1159297072"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2222,8 +2194,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2234,13 +2206,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time,ms</c:v>
+                  <c:v>HasNext</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2263,12 +2235,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>HasNext!$A$2:$A$17</c:f>
+              <c:f>HasNext!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2307,13 +2279,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>HasNext!$B$2:$B$17</c:f>
+              <c:f>HasNext!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>173</c:v>
                 </c:pt>
@@ -2352,7 +2324,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -2363,30 +2335,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-630906192"/>
-        <c:axId val="-630905104"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-630906192"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1159293808"/>
+        <c:axId val="1159291088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1159293808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2408,17 +2368,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of Events</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of Events</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2457,8 +2411,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2485,12 +2439,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-630905104"/>
+        <c:crossAx val="1159291088"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-630905104"/>
+        <c:axId val="1159291088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,20 +2488,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Time,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>ms</a:t>
+                  <a:t>Time, ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2580,14 +2528,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2611,9 +2553,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-630906192"/>
+        <c:crossAx val="1159293808"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2677,8 +2619,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2689,13 +2631,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time,ms</c:v>
+                  <c:v>Interface</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2718,12 +2660,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Interface!$A$2:$A$17</c:f>
+              <c:f>Interface!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2762,13 +2704,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Interface!$B$2:$B$17</c:f>
+              <c:f>Interface!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>133</c:v>
                 </c:pt>
@@ -2807,7 +2749,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -2818,30 +2760,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-369649296"/>
-        <c:axId val="-369652560"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-369649296"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1159295984"/>
+        <c:axId val="1159287280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1159295984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2863,17 +2793,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number Of Events</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of Events</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2912,8 +2836,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2940,12 +2864,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369652560"/>
+        <c:crossAx val="1159287280"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-369652560"/>
+        <c:axId val="1159287280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,20 +2913,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Time,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>ms</a:t>
+                  <a:t>Time, ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3035,14 +2953,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3066,9 +2978,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369649296"/>
+        <c:crossAx val="1159295984"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3131,9 +3043,19 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11959111092907924"/>
+          <c:y val="3.3677760961665207E-2"/>
+          <c:w val="0.8630703541771193"/>
+          <c:h val="0.76034162797862559"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3144,13 +3066,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time,ms</c:v>
+                  <c:v>Lottery Random</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3159,26 +3081,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Lottery!$A$2:$A$17</c:f>
+              <c:f>Lottery!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3217,13 +3127,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Lottery!$B$2:$B$17</c:f>
+              <c:f>Lottery!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>164</c:v>
                 </c:pt>
@@ -3262,7 +3172,113 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Lottery!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lottery Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Lottery!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Lottery!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>472217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2714054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -3273,30 +3289,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-369657456"/>
-        <c:axId val="-369654736"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-369657456"/>
+        <c:smooth val="0"/>
+        <c:axId val="1159296528"/>
+        <c:axId val="1159297616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1159296528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3318,13 +3321,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of Events</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of Events</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3367,8 +3365,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3395,12 +3393,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369654736"/>
+        <c:crossAx val="1159297616"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-369654736"/>
+        <c:axId val="1159297616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3441,15 +3442,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Time,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>ms</a:t>
+                  <a:t>Time, ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3490,14 +3483,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3521,9 +3508,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369657456"/>
+        <c:crossAx val="1159296528"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3533,6 +3520,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3587,8 +3606,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3599,13 +3618,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time,ms</c:v>
+                  <c:v>StateMachine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3628,12 +3647,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>StateMachine!$A$2:$A$17</c:f>
+              <c:f>StateMachine!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -3672,13 +3691,13 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>StateMachine!$B$2:$B$17</c:f>
+              <c:f>StateMachine!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -3717,7 +3736,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -3728,30 +3747,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-369651472"/>
-        <c:axId val="-369647120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-369651472"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1159298704"/>
+        <c:axId val="1159292176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1159298704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3773,17 +3780,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of Events</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of Events</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3822,8 +3823,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3850,12 +3851,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369647120"/>
+        <c:crossAx val="1159292176"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="-369647120"/>
+        <c:axId val="1159292176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,20 +3900,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Time,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>ms</a:t>
+                  <a:t>Time, ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3945,14 +3940,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3976,9 +3965,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369651472"/>
+        <c:crossAx val="1159298704"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4111,11 +4100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-369656912"/>
-        <c:axId val="-369650384"/>
+        <c:axId val="1159288368"/>
+        <c:axId val="1159289456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-369656912"/>
+        <c:axId val="1159288368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,7 +4155,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4233,12 +4221,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369650384"/>
+        <c:crossAx val="1159289456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-369650384"/>
+        <c:axId val="1159289456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4292,7 +4280,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4359,7 +4346,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369656912"/>
+        <c:crossAx val="1159288368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4769,7 +4756,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4796,8 +4783,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4877,6 +4864,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4887,6 +4879,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4898,7 +4895,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4918,6 +4915,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4930,10 +4930,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4973,23 +4973,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5094,8 +5093,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5227,20 +5226,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5254,17 +5252,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5285,7 +5272,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5312,8 +5299,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5393,6 +5380,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5403,6 +5395,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5414,7 +5411,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5434,6 +5431,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5446,10 +5446,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5489,23 +5489,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5610,8 +5609,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5743,20 +5742,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5770,17 +5768,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5801,7 +5788,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5828,8 +5815,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5930,7 +5917,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5962,10 +5949,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6005,23 +5992,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6126,8 +6112,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6259,20 +6245,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6286,17 +6271,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6317,7 +6291,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6344,8 +6318,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6446,7 +6420,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6478,10 +6452,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6521,23 +6495,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6642,8 +6615,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6775,20 +6748,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6802,17 +6774,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6833,7 +6794,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6860,8 +6821,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6962,7 +6923,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6994,10 +6955,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7037,23 +6998,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7158,8 +7118,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7291,20 +7251,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7318,17 +7277,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7349,7 +7297,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7376,8 +7324,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7478,7 +7426,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7510,10 +7458,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7553,23 +7501,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7674,8 +7621,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7807,20 +7754,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7834,17 +7780,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7865,7 +7800,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7892,8 +7827,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7973,6 +7908,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7983,6 +7923,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7994,7 +7939,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8014,6 +7959,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8026,10 +7974,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8069,23 +8017,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8190,8 +8137,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8323,20 +8270,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8350,17 +8296,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8381,7 +8316,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8408,8 +8343,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8510,7 +8445,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8542,10 +8477,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8585,23 +8520,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8706,8 +8640,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8839,20 +8773,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8866,17 +8799,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9416,20 +9338,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>263338</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9452,22 +9374,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>22413</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>23532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>543485</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>29135</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9488,23 +9408,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>305360</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10085</xdr:rowOff>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9525,23 +9443,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604836</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>543485</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10085</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9562,23 +9478,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>543485</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10085</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9599,23 +9513,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>543485</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10085</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9636,23 +9548,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>543485</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10085</xdr:rowOff>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9673,23 +9583,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533960</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>48185</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10006,391 +9914,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2">
-        <f>SUM(C2:F2) / 4</f>
+      <c r="B2" s="3">
         <v>226</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
+        <v>1264</v>
+      </c>
+      <c r="D2" s="2">
         <v>217</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>132</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>338</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B17" si="0">SUM(C3:F3) / 4</f>
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B17" si="0">SUM(D3:G3) / 4</f>
         <v>399.75</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
+        <v>3390</v>
+      </c>
+      <c r="D3" s="2">
         <v>430</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>316</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>244</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>609</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <f t="shared" si="0"/>
         <v>409.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
+        <v>13869</v>
+      </c>
+      <c r="D4" s="2">
         <v>436</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>414</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>337</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>600</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>615</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
+        <v>63167</v>
+      </c>
+      <c r="D5" s="2">
         <v>658</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>603</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>626</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>800</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>678.75</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
+        <v>333880</v>
+      </c>
+      <c r="D6" s="2">
         <v>673</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>686</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>668</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>688</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
+        <v>939267</v>
+      </c>
+      <c r="D7" s="2">
         <v>1514</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>1363</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>1240</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>2283</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>1795.5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="2">
         <v>1785</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>1825</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>1774</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>1798</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3793.25</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
         <v>3709</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>3836</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>3777</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>3851</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>5580</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3"/>
+      <c r="D10" s="2">
         <v>5629</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>5565</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>5642</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>5484</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>7566.25</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2">
         <v>7475</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>7202</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>8040</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>7548</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10340.75</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="2">
         <v>9351</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>9715</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>9721</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>12576</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20000</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>19312.75</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
         <v>19906</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>19699</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>18824</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>18822</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>40000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>40213.75</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="2">
         <v>40179</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>39306</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>40526</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>40844</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>60000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>62562.75</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2">
         <v>63939</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>62522</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>61480</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>62310</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>80000</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>89098.75</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="2">
         <v>88704</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>88787</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>89128</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>89776</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>A12*10</f>
         <v>100000</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>135135.5</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2">
         <v>131381</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>139917</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>136232</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>133012</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" ref="A18:A20" si="1">A17*10</f>
-        <v>1000000</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ref="B18:B20" si="2">SUM(C18:F18) / 4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="1"/>
-        <v>10000000</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="1"/>
-        <v>100000000</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10402,50 +10339,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B18" si="0">SUM(C2:F2) / 4</f>
+        <f t="shared" ref="B2:B14" si="0">SUM(D2:G2) / 4</f>
         <v>220.5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
+        <v>81.25</v>
+      </c>
+      <c r="D2" s="2">
         <v>425</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>200</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>130</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -10453,20 +10396,20 @@
         <f t="shared" si="0"/>
         <v>172.25</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>250</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>140</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>142</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400</v>
       </c>
@@ -10474,20 +10417,20 @@
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>349</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>295</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>316</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>800</v>
       </c>
@@ -10495,262 +10438,233 @@
         <f t="shared" si="0"/>
         <v>647.5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>705</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>639</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>624</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>149.75</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1600</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>1592</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D7" s="2">
         <v>2134</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="2">
         <v>1650</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="2">
         <v>1384</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G7" s="2">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>3200</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>2361.5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>2327</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>2324</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <v>2322</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <v>2473</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6400</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>5100.5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D9" s="2">
         <v>5545</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E9" s="2">
         <v>5085</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>4868</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>4904</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10000</v>
+      </c>
+      <c r="B10">
+        <v>7500</v>
+      </c>
+      <c r="C10">
+        <v>1647</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>12800</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>10096.5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D11" s="2">
         <v>10141</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E11" s="2">
         <v>10243</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F11" s="2">
         <v>9995</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G11" s="2">
         <v>10007</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>25600</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>24381.5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D12" s="2">
         <v>24799</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E12" s="2">
         <v>23273</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F12" s="2">
         <v>25125</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G12" s="2">
         <v>24329</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>51200</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>52711</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D13" s="2">
         <v>53117</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E13" s="2">
         <v>52682</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F13" s="2">
         <v>52102</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G13" s="2">
         <v>52943</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>100000</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>116425.75</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C14">
+        <v>49006.5</v>
+      </c>
+      <c r="D14" s="2">
         <v>118920</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E14" s="2">
         <v>115436</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F14" s="2">
         <v>117245</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G14" s="2">
         <v>114102</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>100</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>81.25</v>
-      </c>
-      <c r="C15" s="2">
-        <v>98</v>
-      </c>
-      <c r="D15" s="2">
-        <v>95</v>
-      </c>
-      <c r="E15" s="2">
-        <v>71</v>
-      </c>
-      <c r="F15" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1000</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>149.75</v>
-      </c>
-      <c r="C16" s="2">
-        <v>187</v>
-      </c>
-      <c r="D16" s="2">
-        <v>138</v>
-      </c>
-      <c r="E16" s="2">
-        <v>139</v>
-      </c>
-      <c r="F16" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10000</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>1647</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2413</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1428</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1353</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>100000</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>49006.5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>50852</v>
-      </c>
-      <c r="D18" s="2">
-        <v>48859</v>
-      </c>
-      <c r="E18" s="2">
-        <v>47984</v>
-      </c>
-      <c r="F18" s="2">
-        <v>48331</v>
-      </c>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10762,17 +10676,15 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11018,17 +10930,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11038,20 +10948,8 @@
       <c r="B2">
         <v>143</v>
       </c>
-      <c r="C2">
-        <v>202</v>
-      </c>
-      <c r="D2">
-        <v>173</v>
-      </c>
-      <c r="E2">
-        <v>97</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11061,20 +10959,8 @@
       <c r="B3">
         <v>98</v>
       </c>
-      <c r="C3">
-        <v>98</v>
-      </c>
-      <c r="D3">
-        <v>97</v>
-      </c>
-      <c r="E3">
-        <v>96</v>
-      </c>
-      <c r="F3">
-        <v>103</v>
-      </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11084,20 +10970,8 @@
       <c r="B4">
         <v>328</v>
       </c>
-      <c r="C4">
-        <v>368</v>
-      </c>
-      <c r="D4">
-        <v>284</v>
-      </c>
-      <c r="E4">
-        <v>260</v>
-      </c>
-      <c r="F4">
-        <v>401</v>
-      </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11107,20 +10981,8 @@
       <c r="B5">
         <v>663</v>
       </c>
-      <c r="C5">
-        <v>688</v>
-      </c>
-      <c r="D5">
-        <v>606</v>
-      </c>
-      <c r="E5">
-        <v>771</v>
-      </c>
-      <c r="F5">
-        <v>589</v>
-      </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -11130,20 +10992,8 @@
       <c r="B6">
         <v>999</v>
       </c>
-      <c r="C6">
-        <v>1017</v>
-      </c>
-      <c r="D6">
-        <v>987</v>
-      </c>
-      <c r="E6">
-        <v>999</v>
-      </c>
-      <c r="F6">
-        <v>995</v>
-      </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11153,20 +11003,8 @@
       <c r="B7">
         <v>2920</v>
       </c>
-      <c r="C7">
-        <v>2995</v>
-      </c>
-      <c r="D7">
-        <v>3042</v>
-      </c>
-      <c r="E7">
-        <v>2858</v>
-      </c>
-      <c r="F7">
-        <v>2787</v>
-      </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11176,20 +11014,8 @@
       <c r="B8">
         <v>6103</v>
       </c>
-      <c r="C8">
-        <v>6670</v>
-      </c>
-      <c r="D8">
-        <v>5923</v>
-      </c>
-      <c r="E8">
-        <v>5936</v>
-      </c>
-      <c r="F8">
-        <v>5884</v>
-      </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11199,20 +11025,8 @@
       <c r="B9">
         <v>8576</v>
       </c>
-      <c r="C9">
-        <v>8474</v>
-      </c>
-      <c r="D9">
-        <v>8587</v>
-      </c>
-      <c r="E9">
-        <v>8529</v>
-      </c>
-      <c r="F9">
-        <v>8716</v>
-      </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11222,20 +11036,8 @@
       <c r="B10">
         <v>21943</v>
       </c>
-      <c r="C10">
-        <v>21412</v>
-      </c>
-      <c r="D10">
-        <v>22116</v>
-      </c>
-      <c r="E10">
-        <v>22252</v>
-      </c>
-      <c r="F10">
-        <v>21994</v>
-      </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11245,20 +11047,8 @@
       <c r="B11">
         <v>49414</v>
       </c>
-      <c r="C11">
-        <v>49813</v>
-      </c>
-      <c r="D11">
-        <v>49709</v>
-      </c>
-      <c r="E11">
-        <v>48780</v>
-      </c>
-      <c r="F11">
-        <v>49354</v>
-      </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11268,20 +11058,8 @@
       <c r="B12">
         <v>96999</v>
       </c>
-      <c r="C12">
-        <v>105422</v>
-      </c>
-      <c r="D12">
-        <v>101381</v>
-      </c>
-      <c r="E12">
-        <v>92173</v>
-      </c>
-      <c r="F12">
-        <v>89023</v>
-      </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11290,18 +11068,6 @@
       </c>
       <c r="B13">
         <v>265377</v>
-      </c>
-      <c r="C13">
-        <v>248457</v>
-      </c>
-      <c r="D13">
-        <v>253842</v>
-      </c>
-      <c r="E13">
-        <v>278523</v>
-      </c>
-      <c r="F13">
-        <v>280686</v>
       </c>
     </row>
   </sheetData>
@@ -11315,17 +11081,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11335,20 +11099,8 @@
       <c r="B2">
         <v>173</v>
       </c>
-      <c r="C2">
-        <v>262</v>
-      </c>
-      <c r="D2">
-        <v>183</v>
-      </c>
-      <c r="E2">
-        <v>130</v>
-      </c>
-      <c r="F2">
-        <v>118</v>
-      </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11358,20 +11110,8 @@
       <c r="B3">
         <v>46</v>
       </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-      <c r="D3">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>51</v>
-      </c>
-      <c r="F3">
-        <v>46</v>
-      </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11381,20 +11121,8 @@
       <c r="B4">
         <v>293</v>
       </c>
-      <c r="C4">
-        <v>316</v>
-      </c>
-      <c r="D4">
-        <v>278</v>
-      </c>
-      <c r="E4">
-        <v>295</v>
-      </c>
-      <c r="F4">
-        <v>286</v>
-      </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11404,20 +11132,8 @@
       <c r="B5">
         <v>416</v>
       </c>
-      <c r="C5">
-        <v>403</v>
-      </c>
-      <c r="D5">
-        <v>394</v>
-      </c>
-      <c r="E5">
-        <v>447</v>
-      </c>
-      <c r="F5">
-        <v>423</v>
-      </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -11427,20 +11143,8 @@
       <c r="B6">
         <v>886</v>
       </c>
-      <c r="C6">
-        <v>830</v>
-      </c>
-      <c r="D6">
-        <v>841</v>
-      </c>
-      <c r="E6">
-        <v>910</v>
-      </c>
-      <c r="F6">
-        <v>963</v>
-      </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11450,20 +11154,8 @@
       <c r="B7">
         <v>1809</v>
       </c>
-      <c r="C7">
-        <v>1811</v>
-      </c>
-      <c r="D7">
-        <v>1827</v>
-      </c>
-      <c r="E7">
-        <v>1791</v>
-      </c>
-      <c r="F7">
-        <v>1807</v>
-      </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11473,20 +11165,8 @@
       <c r="B8">
         <v>4219</v>
       </c>
-      <c r="C8">
-        <v>4199</v>
-      </c>
-      <c r="D8">
-        <v>4213</v>
-      </c>
-      <c r="E8">
-        <v>4216</v>
-      </c>
-      <c r="F8">
-        <v>4251</v>
-      </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11496,20 +11176,8 @@
       <c r="B9">
         <v>7652</v>
       </c>
-      <c r="C9">
-        <v>7516</v>
-      </c>
-      <c r="D9">
-        <v>7674</v>
-      </c>
-      <c r="E9">
-        <v>7713</v>
-      </c>
-      <c r="F9">
-        <v>7705</v>
-      </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11519,20 +11187,8 @@
       <c r="B10">
         <v>16759</v>
       </c>
-      <c r="C10">
-        <v>17136</v>
-      </c>
-      <c r="D10">
-        <v>16537</v>
-      </c>
-      <c r="E10">
-        <v>16668</v>
-      </c>
-      <c r="F10">
-        <v>16695</v>
-      </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11542,20 +11198,8 @@
       <c r="B11">
         <v>41673</v>
       </c>
-      <c r="C11">
-        <v>41433</v>
-      </c>
-      <c r="D11">
-        <v>41634</v>
-      </c>
-      <c r="E11">
-        <v>41844</v>
-      </c>
-      <c r="F11">
-        <v>41784</v>
-      </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11565,20 +11209,8 @@
       <c r="B12">
         <v>108181</v>
       </c>
-      <c r="C12">
-        <v>114725</v>
-      </c>
-      <c r="D12">
-        <v>105342</v>
-      </c>
-      <c r="E12">
-        <v>107396</v>
-      </c>
-      <c r="F12">
-        <v>105264</v>
-      </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11588,20 +11220,8 @@
       <c r="B13">
         <v>347403</v>
       </c>
-      <c r="C13">
-        <v>329307</v>
-      </c>
-      <c r="D13">
-        <v>348770</v>
-      </c>
-      <c r="E13">
-        <v>345144</v>
-      </c>
-      <c r="F13">
-        <v>366392</v>
-      </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -11615,17 +11235,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11635,20 +11253,8 @@
       <c r="B2">
         <v>133</v>
       </c>
-      <c r="C2">
-        <v>214</v>
-      </c>
-      <c r="D2">
-        <v>121</v>
-      </c>
-      <c r="E2">
-        <v>96</v>
-      </c>
-      <c r="F2">
-        <v>102</v>
-      </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11658,20 +11264,8 @@
       <c r="B3">
         <v>161</v>
       </c>
-      <c r="C3">
-        <v>93</v>
-      </c>
-      <c r="D3">
-        <v>112</v>
-      </c>
-      <c r="E3">
-        <v>241</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11681,20 +11275,8 @@
       <c r="B4">
         <v>243</v>
       </c>
-      <c r="C4">
-        <v>264</v>
-      </c>
-      <c r="D4">
-        <v>233</v>
-      </c>
-      <c r="E4">
-        <v>240</v>
-      </c>
-      <c r="F4">
-        <v>238</v>
-      </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11704,20 +11286,8 @@
       <c r="B5">
         <v>477</v>
       </c>
-      <c r="C5">
-        <v>487</v>
-      </c>
-      <c r="D5">
-        <v>480</v>
-      </c>
-      <c r="E5">
-        <v>472</v>
-      </c>
-      <c r="F5">
-        <v>472</v>
-      </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -11727,20 +11297,8 @@
       <c r="B6">
         <v>1434</v>
       </c>
-      <c r="C6">
-        <v>1304</v>
-      </c>
-      <c r="D6">
-        <v>1487</v>
-      </c>
-      <c r="E6">
-        <v>1411</v>
-      </c>
-      <c r="F6">
-        <v>1534</v>
-      </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11750,20 +11308,8 @@
       <c r="B7">
         <v>2350</v>
       </c>
-      <c r="C7">
-        <v>2649</v>
-      </c>
-      <c r="D7">
-        <v>2389</v>
-      </c>
-      <c r="E7">
-        <v>2110</v>
-      </c>
-      <c r="F7">
-        <v>2253</v>
-      </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11773,20 +11319,8 @@
       <c r="B8">
         <v>4220</v>
       </c>
-      <c r="C8">
-        <v>4067</v>
-      </c>
-      <c r="D8">
-        <v>4073</v>
-      </c>
-      <c r="E8">
-        <v>4169</v>
-      </c>
-      <c r="F8">
-        <v>4574</v>
-      </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11796,20 +11330,8 @@
       <c r="B9">
         <v>8593</v>
       </c>
-      <c r="C9">
-        <v>7844</v>
-      </c>
-      <c r="D9">
-        <v>8212</v>
-      </c>
-      <c r="E9">
-        <v>8818</v>
-      </c>
-      <c r="F9">
-        <v>9499</v>
-      </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11819,20 +11341,8 @@
       <c r="B10">
         <v>22026</v>
       </c>
-      <c r="C10">
-        <v>19009</v>
-      </c>
-      <c r="D10">
-        <v>23748</v>
-      </c>
-      <c r="E10">
-        <v>22246</v>
-      </c>
-      <c r="F10">
-        <v>23102</v>
-      </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11842,20 +11352,8 @@
       <c r="B11">
         <v>56580</v>
       </c>
-      <c r="C11">
-        <v>57601</v>
-      </c>
-      <c r="D11">
-        <v>55461</v>
-      </c>
-      <c r="E11">
-        <v>56620</v>
-      </c>
-      <c r="F11">
-        <v>56641</v>
-      </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11865,20 +11363,8 @@
       <c r="B12">
         <v>131359</v>
       </c>
-      <c r="C12">
-        <v>135008</v>
-      </c>
-      <c r="D12">
-        <v>126240</v>
-      </c>
-      <c r="E12">
-        <v>133464</v>
-      </c>
-      <c r="F12">
-        <v>130725</v>
-      </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11888,20 +11374,8 @@
       <c r="B13">
         <v>960431</v>
       </c>
-      <c r="C13">
-        <v>438927</v>
-      </c>
-      <c r="D13">
-        <v>424847</v>
-      </c>
-      <c r="E13">
-        <v>2537285</v>
-      </c>
-      <c r="F13">
-        <v>440666</v>
-      </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -11912,20 +11386,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11936,19 +11415,7 @@
         <v>164</v>
       </c>
       <c r="C2">
-        <v>250</v>
-      </c>
-      <c r="D2">
-        <v>164</v>
-      </c>
-      <c r="E2">
-        <v>128</v>
-      </c>
-      <c r="F2">
-        <v>116</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11959,19 +11426,7 @@
         <v>147</v>
       </c>
       <c r="C3">
-        <v>142</v>
-      </c>
-      <c r="D3">
-        <v>153</v>
-      </c>
-      <c r="E3">
-        <v>162</v>
-      </c>
-      <c r="F3">
-        <v>132</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11982,19 +11437,7 @@
         <v>303</v>
       </c>
       <c r="C4">
-        <v>317</v>
-      </c>
-      <c r="D4">
-        <v>301</v>
-      </c>
-      <c r="E4">
-        <v>296</v>
-      </c>
-      <c r="F4">
-        <v>300</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12005,19 +11448,7 @@
         <v>831</v>
       </c>
       <c r="C5">
-        <v>845</v>
-      </c>
-      <c r="D5">
-        <v>817</v>
-      </c>
-      <c r="E5">
-        <v>831</v>
-      </c>
-      <c r="F5">
-        <v>833</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12028,19 +11459,7 @@
         <v>2635</v>
       </c>
       <c r="C6">
-        <v>2804</v>
-      </c>
-      <c r="D6">
-        <v>2757</v>
-      </c>
-      <c r="E6">
-        <v>2586</v>
-      </c>
-      <c r="F6">
-        <v>2395</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
+        <v>22981</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12051,19 +11470,7 @@
         <v>4531</v>
       </c>
       <c r="C7">
-        <v>4511</v>
-      </c>
-      <c r="D7">
-        <v>4515</v>
-      </c>
-      <c r="E7">
-        <v>4532</v>
-      </c>
-      <c r="F7">
-        <v>4566</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
+        <v>104155</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12074,19 +11481,7 @@
         <v>11541</v>
       </c>
       <c r="C8">
-        <v>11574</v>
-      </c>
-      <c r="D8">
-        <v>11590</v>
-      </c>
-      <c r="E8">
-        <v>11407</v>
-      </c>
-      <c r="F8">
-        <v>11596</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
+        <v>472217</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12097,19 +11492,7 @@
         <v>28366</v>
       </c>
       <c r="C9">
-        <v>25478</v>
-      </c>
-      <c r="D9">
-        <v>26240</v>
-      </c>
-      <c r="E9">
-        <v>29492</v>
-      </c>
-      <c r="F9">
-        <v>32256</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
+        <v>2714054</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12119,20 +11502,8 @@
       <c r="B10">
         <v>56560</v>
       </c>
-      <c r="C10">
-        <v>55719</v>
-      </c>
-      <c r="D10">
-        <v>56702</v>
-      </c>
-      <c r="E10">
-        <v>56773</v>
-      </c>
-      <c r="F10">
-        <v>57047</v>
-      </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12142,20 +11513,8 @@
       <c r="B11">
         <v>132837</v>
       </c>
-      <c r="C11">
-        <v>132065</v>
-      </c>
-      <c r="D11">
-        <v>132309</v>
-      </c>
-      <c r="E11">
-        <v>133608</v>
-      </c>
-      <c r="F11">
-        <v>133367</v>
-      </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12165,20 +11524,8 @@
       <c r="B12">
         <v>294681</v>
       </c>
-      <c r="C12">
-        <v>306270</v>
-      </c>
-      <c r="D12">
-        <v>293238</v>
-      </c>
-      <c r="E12">
-        <v>287748</v>
-      </c>
-      <c r="F12">
-        <v>291468</v>
-      </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -12188,20 +11535,48 @@
       <c r="B13">
         <v>710273</v>
       </c>
-      <c r="C13">
-        <v>734815</v>
-      </c>
-      <c r="D13">
-        <v>725680</v>
-      </c>
-      <c r="E13">
-        <v>698452</v>
-      </c>
-      <c r="F13">
-        <v>682148</v>
-      </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -12214,18 +11589,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -12235,18 +11608,10 @@
       <c r="B2">
         <v>20</v>
       </c>
-      <c r="C2" s="2">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -12255,18 +11620,10 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -12275,18 +11632,10 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -12295,18 +11644,10 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -12315,18 +11656,10 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -12335,18 +11668,10 @@
       <c r="B7">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -12355,18 +11680,10 @@
       <c r="B8">
         <v>31</v>
       </c>
-      <c r="C8" s="2">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2">
-        <v>24</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -12375,18 +11692,10 @@
       <c r="B9">
         <v>131</v>
       </c>
-      <c r="C9" s="2">
-        <v>158</v>
-      </c>
-      <c r="D9" s="2">
-        <v>111</v>
-      </c>
-      <c r="E9" s="2">
-        <v>121</v>
-      </c>
-      <c r="F9" s="2">
-        <v>136</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -12395,18 +11704,10 @@
       <c r="B10">
         <v>423</v>
       </c>
-      <c r="C10" s="2">
-        <v>427</v>
-      </c>
-      <c r="D10" s="2">
-        <v>415</v>
-      </c>
-      <c r="E10" s="2">
-        <v>420</v>
-      </c>
-      <c r="F10" s="2">
-        <v>433</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -12415,18 +11716,10 @@
       <c r="B11">
         <v>1605</v>
       </c>
-      <c r="C11" s="2">
-        <v>1607</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1596</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1651</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1566</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -12435,18 +11728,10 @@
       <c r="B12">
         <v>7713</v>
       </c>
-      <c r="C12" s="2">
-        <v>7826</v>
-      </c>
-      <c r="D12" s="2">
-        <v>7046</v>
-      </c>
-      <c r="E12" s="2">
-        <v>8193</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7789</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -12455,18 +11740,10 @@
       <c r="B13">
         <v>30923</v>
       </c>
-      <c r="C13" s="2">
-        <v>32057</v>
-      </c>
-      <c r="D13" s="2">
-        <v>31327</v>
-      </c>
-      <c r="E13" s="2">
-        <v>30098</v>
-      </c>
-      <c r="F13" s="2">
-        <v>30213</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/TestAnalysation.xlsx
+++ b/Documents/TestAnalysation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="825" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="825" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CloseOpen" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
-  <si>
-    <t>No. Of Events</t>
-  </si>
-  <si>
-    <t>Time,ms</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
   <si>
     <t xml:space="preserve">With diferent Items </t>
   </si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>StateMachine</t>
+  </si>
+  <si>
+    <t>Unsafe Map Iterator Worst</t>
+  </si>
+  <si>
+    <t>UnsafeMapIterator Random</t>
   </si>
 </sst>
 </file>
@@ -451,11 +451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1149710304"/>
-        <c:axId val="1149715744"/>
+        <c:axId val="1474818672"/>
+        <c:axId val="1474820848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1149710304"/>
+        <c:axId val="1474818672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1149715744"/>
+        <c:crossAx val="1474820848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -561,7 +561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1149715744"/>
+        <c:axId val="1474820848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,7 +667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1149710304"/>
+        <c:crossAx val="1474818672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1022,11 +1022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1149719552"/>
-        <c:axId val="1149720640"/>
+        <c:axId val="1474812144"/>
+        <c:axId val="1474821936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1149719552"/>
+        <c:axId val="1474812144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1149720640"/>
+        <c:crossAx val="1474821936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1137,7 +1137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1149720640"/>
+        <c:axId val="1474821936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1149719552"/>
+        <c:crossAx val="1474812144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1477,11 +1477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="970903056"/>
-        <c:axId val="970905232"/>
+        <c:axId val="1474813232"/>
+        <c:axId val="1474799056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="970903056"/>
+        <c:axId val="1474813232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="970905232"/>
+        <c:crossAx val="1474799056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1587,7 +1587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="970905232"/>
+        <c:axId val="1474799056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,7 +1693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="970903056"/>
+        <c:crossAx val="1474813232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1902,11 +1902,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1159297072"/>
-        <c:axId val="1159292720"/>
+        <c:axId val="1474802864"/>
+        <c:axId val="1474791984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1159297072"/>
+        <c:axId val="1474802864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +2009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159292720"/>
+        <c:crossAx val="1474791984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2017,7 +2017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1159292720"/>
+        <c:axId val="1474791984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,7 +2128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159297072"/>
+        <c:crossAx val="1474802864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2337,11 +2337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1159293808"/>
-        <c:axId val="1159291088"/>
+        <c:axId val="1474803408"/>
+        <c:axId val="1474792528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1159293808"/>
+        <c:axId val="1474803408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,7 +2439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159291088"/>
+        <c:crossAx val="1474792528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2447,7 +2447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1159291088"/>
+        <c:axId val="1474792528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159293808"/>
+        <c:crossAx val="1474803408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2762,11 +2762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1159295984"/>
-        <c:axId val="1159287280"/>
+        <c:axId val="1474801232"/>
+        <c:axId val="1474806128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1159295984"/>
+        <c:axId val="1474801232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159287280"/>
+        <c:crossAx val="1474806128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2872,7 +2872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1159287280"/>
+        <c:axId val="1474806128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +2978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159295984"/>
+        <c:crossAx val="1474801232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3290,11 +3290,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1159296528"/>
-        <c:axId val="1159297616"/>
+        <c:axId val="1474804496"/>
+        <c:axId val="1474805584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1159296528"/>
+        <c:axId val="1474804496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3393,7 +3393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159297616"/>
+        <c:crossAx val="1474805584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3401,7 +3401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1159297616"/>
+        <c:axId val="1474805584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3508,7 +3508,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159296528"/>
+        <c:crossAx val="1474804496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3749,11 +3749,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1159298704"/>
-        <c:axId val="1159292176"/>
+        <c:axId val="1474801776"/>
+        <c:axId val="1474791440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1159298704"/>
+        <c:axId val="1474801776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,7 +3851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159292176"/>
+        <c:crossAx val="1474791440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3859,7 +3859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1159292176"/>
+        <c:axId val="1474791440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3965,7 +3965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159298704"/>
+        <c:crossAx val="1474801776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4031,8 +4031,8 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4043,13 +4043,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time,ms</c:v>
+                  <c:v>Unsafe Map Iterator Worst</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4072,24 +4072,208 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>UnsafeMapIterator!$A$2:$A$17</c:f>
+              <c:f>UnsafeMapIterator!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>UnsafeMapIterator!$B$2:$B$17</c:f>
+              <c:f>UnsafeMapIterator!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>218228</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>UnsafeMapIterator!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UnsafeMapIterator Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>UnsafeMapIterator!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>UnsafeMapIterator!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63580</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>114710</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>306785</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>480344</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1138816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -4100,30 +4284,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1159288368"/>
-        <c:axId val="1159289456"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1159288368"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1532685696"/>
+        <c:axId val="1532678080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1532685696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4145,16 +4317,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number Of</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of Events</a:t>
+                  <a:t> Events</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4193,8 +4366,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4221,12 +4394,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159289456"/>
+        <c:crossAx val="1532678080"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1159289456"/>
+        <c:axId val="1532678080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4267,19 +4443,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Time,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>ms</a:t>
+                  <a:t>Time, ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4315,14 +4484,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4346,9 +4509,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1159288368"/>
+        <c:crossAx val="1532685696"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4358,6 +4521,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8819,7 +9014,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8846,8 +9041,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8948,7 +9143,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8980,10 +9175,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9023,23 +9218,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9144,8 +9338,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9277,20 +9471,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9304,17 +9497,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9618,23 +9800,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>543485</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10085</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9930,10 +10110,10 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10302,32 +10482,32 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10354,10 +10534,10 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -10684,7 +10864,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10938,7 +11118,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10949,7 +11129,7 @@
         <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10960,7 +11140,7 @@
         <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -10971,7 +11151,7 @@
         <v>328</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -10982,7 +11162,7 @@
         <v>663</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -10993,7 +11173,7 @@
         <v>999</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11004,7 +11184,7 @@
         <v>2920</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11015,7 +11195,7 @@
         <v>6103</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11026,7 +11206,7 @@
         <v>8576</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11037,7 +11217,7 @@
         <v>21943</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11048,7 +11228,7 @@
         <v>49414</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11059,7 +11239,7 @@
         <v>96999</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11089,7 +11269,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11100,7 +11280,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11111,7 +11291,7 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11122,7 +11302,7 @@
         <v>293</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11133,7 +11313,7 @@
         <v>416</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -11144,7 +11324,7 @@
         <v>886</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11155,7 +11335,7 @@
         <v>1809</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11166,7 +11346,7 @@
         <v>4219</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11177,7 +11357,7 @@
         <v>7652</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11188,7 +11368,7 @@
         <v>16759</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11199,7 +11379,7 @@
         <v>41673</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11210,7 +11390,7 @@
         <v>108181</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11221,7 +11401,7 @@
         <v>347403</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11243,7 +11423,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11254,7 +11434,7 @@
         <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11265,7 +11445,7 @@
         <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -11276,7 +11456,7 @@
         <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -11287,7 +11467,7 @@
         <v>477</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -11298,7 +11478,7 @@
         <v>1434</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -11309,7 +11489,7 @@
         <v>2350</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -11320,7 +11500,7 @@
         <v>4220</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11331,7 +11511,7 @@
         <v>8593</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -11342,7 +11522,7 @@
         <v>22026</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11353,7 +11533,7 @@
         <v>56580</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11364,7 +11544,7 @@
         <v>131359</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11375,7 +11555,7 @@
         <v>960431</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11388,7 +11568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -11401,10 +11581,10 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11503,7 +11683,7 @@
         <v>56560</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -11514,7 +11694,7 @@
         <v>132837</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -11525,7 +11705,7 @@
         <v>294681</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11536,47 +11716,47 @@
         <v>710273</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11598,7 +11778,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11754,19 +11934,187 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>475</v>
+      </c>
+      <c r="C2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>887</v>
+      </c>
+      <c r="C3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>400</v>
+      </c>
+      <c r="B4">
+        <v>2828</v>
+      </c>
+      <c r="C4">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>800</v>
+      </c>
+      <c r="B5">
+        <v>10696</v>
+      </c>
+      <c r="C5">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1600</v>
+      </c>
+      <c r="B6">
+        <v>47733</v>
+      </c>
+      <c r="C6">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3200</v>
+      </c>
+      <c r="B7">
+        <v>218228</v>
+      </c>
+      <c r="C7">
+        <v>16342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6400</v>
+      </c>
+      <c r="C8">
+        <v>28867</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12800</v>
+      </c>
+      <c r="C9">
+        <v>63580</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25600</v>
+      </c>
+      <c r="C10">
+        <v>114710</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>51200</v>
+      </c>
+      <c r="C11">
+        <v>306785</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>102400</v>
+      </c>
+      <c r="C12">
+        <v>480344</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>204800</v>
+      </c>
+      <c r="C13">
+        <v>1138816</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
         <v>1</v>
       </c>
     </row>
